--- a/docs/StructureDefinition-PacienteAgenda.xlsx
+++ b/docs/StructureDefinition-PacienteAgenda.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T23:29:58-03:00</t>
+    <t>2025-10-23T00:01:47-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
